--- a/Meteorological Data/Average Temperature-Daily.xlsx
+++ b/Meteorological Data/Average Temperature-Daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/lcchanaj_connect_ust_hk/Documents/桌面/FYP Code/Meteorological Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_0F2DA5A71F40C28E6E38F4F7495DCE3A87475D5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5ACAA9A0-6B7F-420B-8FAF-E2ECDBD1D2BB}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_0F2DA5A71F40C28E6E38F4F7495DCE3A87475D5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B976019-3B16-4317-9287-01174A822408}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -98,7 +98,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -403,13 +403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="G362" sqref="G362"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.625" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3337,14 +3340,6 @@
         <v>28.655825</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B367">
-        <v>27.4008</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
